--- a/worksheets/[EXCEL] Page Score - Electronic Content.xlsx
+++ b/worksheets/[EXCEL] Page Score - Electronic Content.xlsx
@@ -11,7 +11,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+  <si>
+    <t>ACCESSIBILITY SCORE GOALS - Do Not Modify</t>
+  </si>
+  <si>
+    <t>A page accessibility score of 15.0 or less is a good goal for an alpha release</t>
+  </si>
+  <si>
+    <t>A page accessibility score of 10.0 or less is the goal for a beta release</t>
+  </si>
+  <si>
+    <t>A page accessibility score of 5.0 or less is the goal for a production release</t>
+  </si>
   <si>
     <t>CONSTANT VALUES - Do Not Modify</t>
   </si>
@@ -107,7 +119,7 @@
     <t>Zoom errors</t>
   </si>
   <si>
-    <t>ACCESSIBILITY HEAT INDEX SCORE</t>
+    <t>ACCESSIBILITY PAGE SCORE</t>
   </si>
   <si>
     <t>Current Score, Date Logged</t>
@@ -127,7 +139,7 @@
     <numFmt numFmtId="164" formatCode="mmm d, yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm&quot; &quot;d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -143,6 +155,17 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF24292E"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+    </font>
     <font>
       <b/>
       <name val="Arial"/>
@@ -160,6 +183,11 @@
     <font>
       <b/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF24292E"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -176,14 +204,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -199,12 +227,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -215,20 +243,38 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -246,16 +292,16 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -269,6 +315,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -373,451 +425,608 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>4.0</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" ht="27.75" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
         <v>3.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
         <v>2.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
         <v>1.0</v>
       </c>
     </row>
-    <row r="7" ht="27.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" ht="37.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <f>IF(B29 = "Yes", 1.03, 1)</f>
+    <row r="12" ht="27.75" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="37.5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11">
+        <f>IF(B34 = "Yes", 1.03, 1)</f>
         <v>1</v>
       </c>
-      <c r="C9" s="9">
-        <f>IF(B9=1, 0, B9 + 1/(B9/B17))</f>
+      <c r="C14" s="15">
+        <f>IF(B14=1, 0, B14 + 1/(B14/B22))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <f>IF(B30 = "Yes", 1.125, 1)</f>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11">
+        <f>IF(B35 = "Yes", 1.125, 1)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="9">
-        <f>IF(B10=1, 0, B10 + 1/(B10/B17))</f>
+      <c r="C15" s="15">
+        <f>IF(B15=1, 0, B15 + 1/(B15/B22))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <f>IF(B31 = "Yes", 1.08, 1)</f>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11">
+        <f>IF(B36 = "Yes", 1.08, 1)</f>
         <v>1</v>
       </c>
-      <c r="C11" s="9">
-        <f>IF(B11=1, 0, B11 + 1/(B11/B17))</f>
+      <c r="C16" s="15">
+        <f>IF(B16=1, 0, B16 + 1/(B16/B22))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <f>IF(B32 = "Yes", 1.03, 1)</f>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11">
+        <f>IF(B37 = "Yes", 1.03, 1)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="9">
-        <f>IF(B12=1, 0, B12 + 1/(B12/B17))</f>
+      <c r="C17" s="15">
+        <f>IF(B17=1, 0, B17 + 1/(B17/B22))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="27.75" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="14">
+    <row r="19" ht="27.75" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="20">
         <v>1.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" ht="27.75" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-    </row>
-    <row r="22" ht="37.5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="17" t="s">
+    <row r="23">
+      <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5">
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="27.75" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+    </row>
+    <row r="27" ht="37.5">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="11">
         <v>0.0</v>
       </c>
-      <c r="C23">
-        <f>B23 * 4</f>
+      <c r="C28">
+        <f>B28 * 4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="29">
+      <c r="A29" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="11">
         <v>0.0</v>
       </c>
-      <c r="C24">
-        <f>B24 * 3</f>
+      <c r="C29">
+        <f>B29 * 3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="5">
+    <row r="30">
+      <c r="A30" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="11">
         <v>0.0</v>
       </c>
-      <c r="C25">
-        <f>B25 * 2</f>
+      <c r="C30">
+        <f>B30 * 2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C26">
-        <f>B26</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" ht="27.75" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
+    <row r="31">
+      <c r="A31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="C31">
+        <f>B31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="27.75" customHeight="1">
+      <c r="A33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" ht="27.75" customHeight="1">
-      <c r="A34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="20">
-        <f>IF(AND(B17&gt;= 1,B23=0,B24=0,B25=0,B26=0,B29="No",B30="No",B31="No",B32="No"), 0, (IF(AND(B23=0,B24=0,B25=0,B26=0), ((SUM(C9, C10, C11, C12) * B18) / B18), (SUM(SUM(C23, C24, C25, C26), SUM(C9, C10, C11, C12) * B17)) / B17)))</f>
-        <v>3</v>
-      </c>
-      <c r="C35" s="21" t="str">
-        <f>B16</f>
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" ht="27.75" customHeight="1">
+      <c r="A39" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="26">
+        <f>IF(AND(B22&gt;= 1,B28=0,B29=0,B30=0,B31=0,B34="No",B35="No",B36="No",B37="No"), 0, (IF(AND(B28=0,B29=0,B30=0,B31=0), ((SUM(C14, C15, C16, C17) * B23) / B23), (SUM(SUM(C28, C29, C30, C31), SUM(C14, C15, C16, C17) * B22)) / B22)))</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="27" t="str">
+        <f>B21</f>
         <v/>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="22" t="str">
-        <f>B19</f>
+    <row r="41">
+      <c r="A41" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="28" t="str">
+        <f>B24</f>
         <v>n/a</v>
       </c>
-      <c r="C36" s="23" t="str">
-        <f>B18</f>
+      <c r="C41" s="29" t="str">
+        <f>B23</f>
         <v>n/a</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="24">
-        <f>IF(B19 = "n/a", 0, ((B35 - B36)/B36))</f>
+    <row r="42">
+      <c r="A42" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="30">
+        <f>IF(B24 = "n/a", 0, ((B40 - B41)/B41))</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="31"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="31"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:Z7"/>
+    <mergeCell ref="A12:Z12"/>
   </mergeCells>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B42">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>"0%"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B42">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>"0%"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B42">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"0%"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B34">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B30:B32">
+    <dataValidation type="list" allowBlank="1" sqref="B35:B37">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
